--- a/scene_cat_exp_2023.2.2_english/input_files/61_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/61_scenecat_block_order.xlsx
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>living_rooms_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
           <t>kitchens_1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>kitchens_2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>bedrooms_1</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>bedrooms_2</t>
+        </is>
+      </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>living_rooms_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>living_rooms_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>bedrooms_2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -414,10 +414,10 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -443,10 +443,10 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -466,15 +466,15 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -491,19 +491,19 @@
     </row>
     <row r="7">
       <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
